--- a/server/output/excel-from-js.xlsx
+++ b/server/output/excel-from-js.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -403,9 +403,55 @@
         <v>Mobile No.</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>46</v>
+      </c>
+      <c r="C2" t="str">
+        <v>kunal</v>
+      </c>
+      <c r="D2" t="str">
+        <v>kabra</v>
+      </c>
+      <c r="E2" t="str">
+        <v>ISE</v>
+      </c>
+      <c r="F2" t="str">
+        <v>hkgm26@gmail.com</v>
+      </c>
+      <c r="G2" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>48</v>
+      </c>
+      <c r="C3" t="str">
+        <v>hdhd</v>
+      </c>
+      <c r="D3" t="str">
+        <v>dd</v>
+      </c>
+      <c r="E3" t="str">
+        <v>AI</v>
+      </c>
+      <c r="F3" t="str">
+        <v xml:space="preserve">harsh.here78@gmail.com </v>
+      </c>
+      <c r="G3" t="str">
+        <v>dd</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/output/excel-from-js.xlsx
+++ b/server/output/excel-from-js.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,7 +408,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>46</v>
+        <v>1BI20IS048</v>
       </c>
       <c r="C2" t="str">
         <v>kunal</v>
@@ -431,27 +431,165 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>48</v>
+        <v>1BI20CS019</v>
       </c>
       <c r="C3" t="str">
-        <v>hdhd</v>
+        <v>Bristi</v>
       </c>
       <c r="D3" t="str">
-        <v>dd</v>
+        <v>Priya</v>
       </c>
       <c r="E3" t="str">
-        <v>AI</v>
+        <v>-</v>
       </c>
       <c r="F3" t="str">
-        <v xml:space="preserve">harsh.here78@gmail.com </v>
+        <v>bristi@gmail.com</v>
       </c>
       <c r="G3" t="str">
-        <v>dd</v>
+        <v>8987882682</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>1BI20IS014</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Aniket</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Kumar</v>
+      </c>
+      <c r="E4" t="str">
+        <v>ISE</v>
+      </c>
+      <c r="F4" t="str">
+        <v>aniketkumar2001@gmail.com</v>
+      </c>
+      <c r="G4" t="str">
+        <v>8306066488</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>1BI20IS095</v>
+      </c>
+      <c r="C5" t="str">
+        <v>shreya</v>
+      </c>
+      <c r="D5" t="str">
+        <v>narayan</v>
+      </c>
+      <c r="E5" t="str">
+        <v>ISE</v>
+      </c>
+      <c r="F5" t="str">
+        <v>shreyaanushka02@gmail.com</v>
+      </c>
+      <c r="G5" t="str">
+        <v>6203452419</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>1BI20IS019</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Arnav</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Singh</v>
+      </c>
+      <c r="E6" t="str">
+        <v>CIV</v>
+      </c>
+      <c r="F6" t="str">
+        <v>aspirantjee72@gmail.com</v>
+      </c>
+      <c r="G6" t="str">
+        <v>7488723379</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>1BI20EC045</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Shreeja</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Singh</v>
+      </c>
+      <c r="E7" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="F7" t="str">
+        <v>shreeja@gmail.com</v>
+      </c>
+      <c r="G7" t="str">
+        <v>987245367</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>1BI20EC046</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Sonali</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Singh</v>
+      </c>
+      <c r="E8" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="F8" t="str">
+        <v>sonali@gmail.com</v>
+      </c>
+      <c r="G8" t="str">
+        <v>72583872573</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>1BI20EC047</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Vaishnavi</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Patil</v>
+      </c>
+      <c r="E9" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="F9" t="str">
+        <v>patil@gmail.com</v>
+      </c>
+      <c r="G9" t="str">
+        <v>298692775</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/output/excel-from-js.xlsx
+++ b/server/output/excel-from-js.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -420,7 +420,7 @@
         <v>ISE</v>
       </c>
       <c r="F2" t="str">
-        <v>hkgm26@gmail.com</v>
+        <v>aspirantjee78@gmail.com</v>
       </c>
       <c r="G2" t="str">
         <v>-</v>
@@ -440,10 +440,10 @@
         <v>Priya</v>
       </c>
       <c r="E3" t="str">
-        <v>-</v>
+        <v>CSE</v>
       </c>
       <c r="F3" t="str">
-        <v>bristi@gmail.com</v>
+        <v>shadowww.1072@gmail.com</v>
       </c>
       <c r="G3" t="str">
         <v>8987882682</v>
@@ -454,22 +454,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>1BI20IS014</v>
+        <v>1BI20IS012</v>
       </c>
       <c r="C4" t="str">
-        <v>Aniket</v>
+        <v>Karan</v>
       </c>
       <c r="D4" t="str">
-        <v>Kumar</v>
+        <v>Singhania</v>
       </c>
       <c r="E4" t="str">
         <v>ISE</v>
       </c>
       <c r="F4" t="str">
-        <v>aniketkumar2001@gmail.com</v>
+        <v>skumari242000@gmail.com</v>
       </c>
       <c r="G4" t="str">
-        <v>8306066488</v>
+        <v>64378832576</v>
       </c>
     </row>
     <row r="5">
@@ -477,22 +477,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>1BI20IS095</v>
+        <v>1BI20IS014</v>
       </c>
       <c r="C5" t="str">
-        <v>shreya</v>
+        <v>Anikettttttttt</v>
       </c>
       <c r="D5" t="str">
-        <v>narayan</v>
+        <v>Kumar</v>
       </c>
       <c r="E5" t="str">
         <v>ISE</v>
       </c>
       <c r="F5" t="str">
-        <v>shreyaanushka02@gmail.com</v>
+        <v>aniketkumar2001@gmail.com</v>
       </c>
       <c r="G5" t="str">
-        <v>6203452419</v>
+        <v>8306066488</v>
       </c>
     </row>
     <row r="6">
@@ -500,22 +500,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>1BI20IS019</v>
+        <v>1BI20IS095</v>
       </c>
       <c r="C6" t="str">
-        <v>Arnav</v>
+        <v>shreya</v>
       </c>
       <c r="D6" t="str">
-        <v>Singh</v>
+        <v>narayan</v>
       </c>
       <c r="E6" t="str">
-        <v>CIV</v>
+        <v>ISE</v>
       </c>
       <c r="F6" t="str">
-        <v>aspirantjee72@gmail.com</v>
+        <v>shreyaanushka02@gmail.com</v>
       </c>
       <c r="G6" t="str">
-        <v>7488723379</v>
+        <v>6203452419</v>
       </c>
     </row>
     <row r="7">
@@ -523,22 +523,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>1BI20EC045</v>
+        <v>1BI20IS019</v>
       </c>
       <c r="C7" t="str">
-        <v>Shreeja</v>
+        <v>Arnav</v>
       </c>
       <c r="D7" t="str">
         <v>Singh</v>
       </c>
       <c r="E7" t="str">
-        <v>ECE</v>
+        <v>CIV</v>
       </c>
       <c r="F7" t="str">
-        <v>shreeja@gmail.com</v>
+        <v>coolarnav932@gmail.com</v>
       </c>
       <c r="G7" t="str">
-        <v>987245367</v>
+        <v>7488723379</v>
       </c>
     </row>
     <row r="8">
@@ -546,10 +546,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>1BI20EC046</v>
+        <v>1BI20EC045</v>
       </c>
       <c r="C8" t="str">
-        <v>Sonali</v>
+        <v>Shreeja</v>
       </c>
       <c r="D8" t="str">
         <v>Singh</v>
@@ -558,10 +558,10 @@
         <v>ECE</v>
       </c>
       <c r="F8" t="str">
-        <v>sonali@gmail.com</v>
+        <v>aasthavini30@gmail.com</v>
       </c>
       <c r="G8" t="str">
-        <v>72583872573</v>
+        <v>987245367</v>
       </c>
     </row>
     <row r="9">
@@ -569,27 +569,50 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>1BI20EC047</v>
+        <v>1BI20EC046</v>
       </c>
       <c r="C9" t="str">
-        <v>Vaishnavi</v>
+        <v>Sonali</v>
       </c>
       <c r="D9" t="str">
-        <v>Patil</v>
+        <v>Singh</v>
       </c>
       <c r="E9" t="str">
         <v>ECE</v>
       </c>
       <c r="F9" t="str">
-        <v>patil@gmail.com</v>
+        <v>pixelsspeaking@gmail.com</v>
       </c>
       <c r="G9" t="str">
+        <v>72583872573</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>1BI20EC047</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Vaishnavi</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Patil</v>
+      </c>
+      <c r="E10" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="F10" t="str">
+        <v>20051052@kiit.ac.in</v>
+      </c>
+      <c r="G10" t="str">
         <v>298692775</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G10"/>
   </ignoredErrors>
 </worksheet>
 </file>